--- a/easyexcel-test/src/test/resources/demo/fill/pipe3.xlsx
+++ b/easyexcel-test/src/test/resources/demo/fill/pipe3.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>姓名</t>
   </si>
@@ -36,6 +36,9 @@
     <t>图片2</t>
   </si>
   <si>
+    <t>错误</t>
+  </si>
+  <si>
     <t>{.demo.fillData.name | trim:}</t>
   </si>
   <si>
@@ -45,7 +48,31 @@
     <t>{.demo.fillData.date}</t>
   </si>
   <si>
-    <t>{.demo.fillData.images | trim: | ends-with:m100-1.3.jpg,m100-1.1.jpg}</t>
+    <r>
+      <t>{.demo.fillData.images | trim | prior</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ends-with:m100-1.8.jpg,m100-1.7.jpg}
+{.demo.fillData.images | contains:m100-1.22}</t>
+    </r>
   </si>
   <si>
     <t>{.demo.fillData.date | date-format:yyyy-MM-dd}</t>
@@ -60,7 +87,7 @@
     <t>{.demo.fillData.images | trim | list-out:wrap}</t>
   </si>
   <si>
-    <t>{.demo.fillData.images | trim | list-index:1}</t>
+    <t>{.error}</t>
   </si>
 </sst>
 </file>
@@ -73,7 +100,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,6 +256,14 @@
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -682,7 +717,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -691,6 +726,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1042,8 +1080,8 @@
   <sheetPr/>
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -1083,36 +1121,36 @@
         <v>3</v>
       </c>
       <c r="I1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" ht="40.5" spans="1:9">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
         <v>9</v>
       </c>
+      <c r="D2" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="E2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
